--- a/miedema_coefficients.xlsx
+++ b/miedema_coefficients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/19980377/miedema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BA3A37-5EDF-2049-A0CB-90DFED3A48F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC0C9B5-A5C0-EA40-B29E-6DE1D4081663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1000" windowWidth="23200" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>element</t>
   </si>
@@ -254,17 +254,23 @@
     <t>transitivity</t>
   </si>
   <si>
-    <t>radius</t>
-  </si>
-  <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>radius_atom</t>
+  </si>
+  <si>
+    <t>radius_ion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +278,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,12 +295,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,8 +313,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -589,19 +595,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,20 +623,26 @@
         <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
         <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>2.85</v>
       </c>
       <c r="C2">
@@ -643,32 +657,38 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>4.2</v>
+      <c r="B3" s="1">
+        <v>5.05</v>
       </c>
       <c r="C3">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="D3">
         <v>2.9</v>
       </c>
       <c r="E3">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2.7</v>
       </c>
       <c r="C4">
@@ -678,21 +698,24 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E4">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3.45</v>
       </c>
       <c r="C5">
-        <v>3.45</v>
+        <v>1.17</v>
       </c>
       <c r="D5">
         <v>5.8</v>
@@ -703,12 +726,15 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4.2</v>
       </c>
       <c r="C6">
@@ -723,12 +749,15 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>4.7</v>
       </c>
       <c r="C7">
@@ -737,15 +766,21 @@
       <c r="D7">
         <v>4.2</v>
       </c>
+      <c r="E7">
+        <v>2.1</v>
+      </c>
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>2.25</v>
       </c>
       <c r="C8">
@@ -760,12 +795,15 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>2.5499999999999998</v>
       </c>
       <c r="C9">
@@ -780,8 +818,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -800,16 +841,19 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="H10">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="C11">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="D11">
         <v>4.8</v>
@@ -820,12 +864,18 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>1.47</v>
+      </c>
+      <c r="I11">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>4.25</v>
       </c>
       <c r="C12">
@@ -840,12 +890,15 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>4.6500000000000004</v>
       </c>
       <c r="C13">
@@ -860,12 +913,15 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>4.45</v>
       </c>
       <c r="C14">
@@ -880,12 +936,18 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="H14">
+        <v>1.27</v>
+      </c>
+      <c r="I14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>4.93</v>
       </c>
       <c r="C15">
@@ -900,12 +962,18 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>1.4</v>
+      </c>
+      <c r="I15">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>5.0999999999999996</v>
       </c>
       <c r="C16">
@@ -920,12 +988,18 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>1.25</v>
+      </c>
+      <c r="I16">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>5.2</v>
       </c>
       <c r="C17">
@@ -940,13 +1014,16 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>4.55</v>
+      <c r="B18">
+        <v>4.45</v>
       </c>
       <c r="C18">
         <v>1.47</v>
@@ -960,12 +1037,15 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>4.0999999999999996</v>
       </c>
       <c r="C19">
@@ -980,12 +1060,15 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>4.0999999999999996</v>
       </c>
       <c r="C20">
@@ -1000,12 +1083,15 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>4.55</v>
       </c>
       <c r="C21">
@@ -1020,12 +1106,15 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>4.8</v>
       </c>
       <c r="C22">
@@ -1040,12 +1129,15 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>2.1</v>
       </c>
       <c r="C23">
@@ -1060,12 +1152,15 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>2.4</v>
       </c>
       <c r="C24">
@@ -1078,14 +1173,17 @@
         <v>0.4</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>3.2</v>
       </c>
       <c r="C25">
@@ -1100,16 +1198,22 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>1.78</v>
+      </c>
+      <c r="I25">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>3.4</v>
+      <c r="B26">
+        <v>3.45</v>
       </c>
       <c r="C26">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="D26">
         <v>5.8</v>
@@ -1120,16 +1224,22 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>1.6</v>
+      </c>
+      <c r="I26">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>4</v>
+      <c r="B27">
+        <v>4.05</v>
       </c>
       <c r="C27">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="D27">
         <v>4.9000000000000004</v>
@@ -1140,12 +1250,15 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>4.6500000000000004</v>
       </c>
       <c r="C28">
@@ -1160,12 +1273,15 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>5.3</v>
       </c>
       <c r="C29">
@@ -1180,12 +1296,15 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>5.4</v>
       </c>
       <c r="C30">
@@ -1200,13 +1319,16 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>5.0999999999999996</v>
+      <c r="B31">
+        <v>5.4</v>
       </c>
       <c r="C31">
         <v>1.76</v>
@@ -1220,12 +1342,15 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>5.45</v>
       </c>
       <c r="C32">
@@ -1240,16 +1365,19 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
-        <v>4.45</v>
+      <c r="B33">
+        <v>4.3499999999999996</v>
       </c>
       <c r="C33">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="D33">
         <v>4.8</v>
@@ -1260,12 +1388,15 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>1.454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>4.05</v>
       </c>
       <c r="C34">
@@ -1278,14 +1409,17 @@
         <v>1.4</v>
       </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>3.9</v>
       </c>
       <c r="C35">
@@ -1300,12 +1434,15 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>4.1500000000000004</v>
       </c>
       <c r="C36">
@@ -1320,12 +1457,18 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>1.62</v>
+      </c>
+      <c r="I36">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>4.4000000000000004</v>
       </c>
       <c r="C37">
@@ -1340,12 +1483,15 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>1.95</v>
       </c>
       <c r="C38">
@@ -1360,12 +1506,15 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>2.3199999999999998</v>
       </c>
       <c r="C39">
@@ -1380,16 +1529,19 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>3.05</v>
+      <c r="B40">
+        <v>3.17</v>
       </c>
       <c r="C40">
-        <v>1.0900000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="D40">
         <v>8</v>
@@ -1400,16 +1552,19 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <v>3.55</v>
+      <c r="B41">
+        <v>3.6</v>
       </c>
       <c r="C41">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="D41">
         <v>5.6</v>
@@ -1420,12 +1575,15 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>4.05</v>
       </c>
       <c r="C42">
@@ -1440,12 +1598,15 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>4.8</v>
       </c>
       <c r="C43">
@@ -1460,16 +1621,19 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
-        <v>5.4</v>
+      <c r="B44">
+        <v>5.2</v>
       </c>
       <c r="C44">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="D44">
         <v>4.3</v>
@@ -1480,12 +1644,15 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>5.4</v>
       </c>
       <c r="C45">
@@ -1500,12 +1667,15 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>5.55</v>
       </c>
       <c r="C46">
@@ -1520,12 +1690,15 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>5.65</v>
       </c>
       <c r="C47">
@@ -1540,12 +1713,15 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>5.15</v>
       </c>
       <c r="C48">
@@ -1560,12 +1736,15 @@
       <c r="F48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>4.2</v>
       </c>
       <c r="C49">
@@ -1580,12 +1759,15 @@
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>3.9</v>
       </c>
       <c r="C50">
@@ -1600,12 +1782,15 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>4.0999999999999996</v>
       </c>
       <c r="C51">
@@ -1620,12 +1805,15 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <v>4.1500000000000004</v>
       </c>
       <c r="C52">
@@ -1640,8 +1828,11 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1651,11 +1842,17 @@
       <c r="C53">
         <v>1.19</v>
       </c>
+      <c r="D53">
+        <v>7.76</v>
+      </c>
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1665,11 +1862,17 @@
       <c r="C54">
         <v>1.2</v>
       </c>
+      <c r="D54">
+        <v>7.56</v>
+      </c>
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1680,13 +1883,19 @@
         <v>1.2</v>
       </c>
       <c r="D55">
-        <v>20.58</v>
+        <v>7.5</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>1.82</v>
+      </c>
+      <c r="I55">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1697,13 +1906,16 @@
         <v>1.21</v>
       </c>
       <c r="D56">
-        <v>20.25</v>
+        <v>7.43</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1714,13 +1926,16 @@
         <v>1.21</v>
       </c>
       <c r="D57">
-        <v>20.010000000000002</v>
+        <v>7.37</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1731,13 +1946,16 @@
         <v>1.21</v>
       </c>
       <c r="D58">
-        <v>19.97</v>
+        <v>7.36</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1748,13 +1966,16 @@
         <v>1.21</v>
       </c>
       <c r="D59">
-        <v>19.899999999999999</v>
+        <v>7.34</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1765,13 +1986,16 @@
         <v>1.22</v>
       </c>
       <c r="D60">
-        <v>19.32</v>
+        <v>7.2</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1782,13 +2006,16 @@
         <v>1.22</v>
       </c>
       <c r="D61">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1796,16 +2023,19 @@
         <v>3.22</v>
       </c>
       <c r="C62">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="D62">
-        <v>18.760000000000002</v>
+        <v>7</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1816,13 +2046,16 @@
         <v>1.23</v>
       </c>
       <c r="D63">
-        <v>18.45</v>
+        <v>6.98</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1833,13 +2066,16 @@
         <v>1.23</v>
       </c>
       <c r="D64">
-        <v>18.12</v>
+        <v>6.89</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1850,13 +2086,16 @@
         <v>1.23</v>
       </c>
       <c r="D65">
-        <v>17.97</v>
+        <v>8.86</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1867,70 +2106,85 @@
         <v>1.24</v>
       </c>
       <c r="D66">
-        <v>17.77</v>
+        <v>6.8</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>3.3</v>
       </c>
       <c r="C67">
         <v>1.28</v>
       </c>
       <c r="D67">
-        <v>19.8</v>
+        <v>7.3</v>
       </c>
       <c r="E67">
-        <v>7.3</v>
+        <v>0.7</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>1.8</v>
+      </c>
+      <c r="I67">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
-        <v>4.05</v>
+      <c r="B68">
+        <v>3.9</v>
       </c>
       <c r="C68">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="D68">
-        <v>13.15</v>
+        <v>5.6</v>
       </c>
       <c r="E68">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>3.8</v>
       </c>
       <c r="C69">
         <v>1.44</v>
       </c>
       <c r="D69">
-        <v>12.06</v>
+        <v>5.2</v>
       </c>
       <c r="E69">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>
